--- a/数据整理/stocks/A股/创业板/300705-九典制药.xlsx
+++ b/数据整理/stocks/A股/创业板/300705-九典制药.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>020023</t>
+          <t>003516</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰事件驱动策略混合</t>
+          <t>国泰融安多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>86.14</t>
+          <t>14.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4973</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003516</t>
+          <t>020023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰融安多策略灵活配置混合</t>
+          <t>国泰事件驱动策略混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.58</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>88.84</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.09</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4830</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>020023</t>
+          <t>020026</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰事件驱动策略混合</t>
+          <t>国泰成长优选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.97</t>
+          <t>10.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4205</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -650,25 +710,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010709</t>
+          <t>519606</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>安信医药健康主题股票A</t>
+          <t>国泰金鑫股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>86.00</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2651</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -678,25 +748,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010710</t>
+          <t>010709</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>安信医药健康主题股票C</t>
+          <t>安信医药健康主题股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>86.00</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.29</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -706,26 +786,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>020026</t>
+          <t>020023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰成长优选混合</t>
+          <t>国泰事件驱动策略混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -734,25 +824,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519606</t>
+          <t>010710</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰金鑫股票</t>
+          <t>安信医药健康主题股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300705-九典制药.xlsx
+++ b/数据整理/stocks/A股/创业板/300705-九典制药.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7314</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5827</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3771</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2997</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>68.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>68.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300705-九典制药.xlsx
+++ b/数据整理/stocks/A股/创业板/300705-九典制药.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1372,4 +1373,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4892</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300705-九典制药.xlsx
+++ b/数据整理/stocks/A股/创业板/300705-九典制药.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1543,4 +1544,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300705-九典制药.xlsx
+++ b/数据整理/stocks/A股/创业板/300705-九典制药.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1552,7 +1553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1563,17 +1564,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1583,14 +1604,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5765</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.76</v>
       </c>
     </row>
     <row r="3">
@@ -1599,14 +1642,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.6</v>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5443</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1615,14 +1680,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.39</v>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2947</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1631,13 +1718,379 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1416</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>42.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>42.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.62</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300705-九典制药.xlsx
+++ b/数据整理/stocks/A股/创业板/300705-九典制药.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1989,7 +1990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2000,17 +2001,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2020,14 +2041,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.98</v>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9465</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2036,14 +2079,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.76</v>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4561</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2052,14 +2117,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.6</v>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2113</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2068,14 +2155,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.39</v>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2084,13 +2193,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.62</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300705-九典制药.xlsx
+++ b/数据整理/stocks/A股/创业板/300705-九典制药.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2236,7 +2237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2247,17 +2248,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2267,14 +2288,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.69</v>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4356</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2283,14 +2326,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.98</v>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7432</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2299,14 +2364,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.76</v>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2840</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2315,14 +2402,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.6</v>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2331,14 +2440,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.39</v>
+          <t>012216</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>红塔红土盛利混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>53.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2347,13 +2478,333 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012217</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>红塔红土盛利混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>53.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014960</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.62</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300705-九典制药.xlsx
+++ b/数据整理/stocks/A股/创业板/300705-九典制药.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>2.6</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.69</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1.98</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>0.76</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>2.6</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>1.39</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -600,6 +617,860 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0540</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9000</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3880</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2031</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012880</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1584</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014841</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方阿尔法医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013483</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013554</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信澳远见价值混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>48.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013555</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信澳远见价值混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>48.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014842</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方阿尔法医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012881</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014960</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013166</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东兴宸祥量化混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015592</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013167</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东兴宸祥量化混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1033,7 +1904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1279,7 +2150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1715,7 +2586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1885,7 +2756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2397,7 +3268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2681,7 +3552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300705-九典制药.xlsx
+++ b/数据整理/stocks/A股/创业板/300705-九典制药.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>3.06</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>2.6</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>1.69</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1.98</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.76</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>2.6</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>1.39</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -616,7 +633,1067 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4973</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3042</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1698</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0735</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012186</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4628</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2458</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012187</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1983</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1740</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012880</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014841</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方阿尔法医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014589</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商成长先导股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014842</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方阿尔法医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007056</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华积极精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012881</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.90</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014590</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商成长先导股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014960</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.85</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015592</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1470,7 +2547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1904,7 +2981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2150,7 +3227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2586,7 +3663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2756,7 +3833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3268,7 +4345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3550,136 +4627,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>003516</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰融安多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>14.29</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.58</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4973</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>020023</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰事件驱动策略混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.14</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1274</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>